--- a/data/trans_bre/P18_2_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P18_2_R-Urba-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:P12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -527,6 +527,10 @@
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
     <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -545,15 +549,19 @@
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="inlineStr">
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="I1" s="3" t="n"/>
-      <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -580,32 +588,52 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -622,6 +650,10 @@
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
       <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -636,52 +668,72 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>2,72</t>
+          <t>2,73</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,66</t>
+          <t>0,81</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>2,15</t>
+          <t>2,38</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>1,81</t>
+          <t>1,48</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-2,88</t>
+          <t>0,71</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>24,47%</t>
+          <t>2,88</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>13,97%</t>
+          <t>0,54</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>39,44%</t>
+          <t>24,49%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>54,56%</t>
+          <t>17,01%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>-3,02%</t>
+          <t>45,6%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>39,19%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>23,81%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>59,89%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>10,06%</t>
         </is>
       </c>
     </row>
@@ -694,52 +746,72 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,71; 6,21</t>
+          <t>-1,52; 6,13</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,84; 3,44</t>
+          <t>-3,48; 3,42</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-0,74; 4,76</t>
+          <t>-0,73; 4,91</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-0,37; 3,7</t>
+          <t>-0,99; 3,72</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-5,36; -0,23</t>
+          <t>-1,33; 3,24</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-13,01; 65,72</t>
+          <t>0,77; 5,61</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-41,69; 116,77</t>
+          <t>-1,73; 2,92</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-10,6; 115,45</t>
+          <t>-11,73; 66,69</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-10,44; 157,12</t>
+          <t>-47,63; 113,81</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>-5,56; -0,28</t>
+          <t>-11,37; 119,42</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-24,04; 140,09</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-36,54; 158,51</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>10,08; 149,09</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>-26,84; 71,57</t>
         </is>
       </c>
     </row>
@@ -761,47 +833,67 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>2,99</t>
+          <t>3,06</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>3,13</t>
+          <t>3,39</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>2,51</t>
+          <t>2,98</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>1,49</t>
+          <t>-0,19</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>26,86%</t>
+          <t>-1,49</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>121,64%</t>
+          <t>-0,45</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>80,75%</t>
+          <t>26,87%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>92,07%</t>
+          <t>127,37%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>1,59%</t>
+          <t>94,56%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>109,13%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>-4,39%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>-23,61%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>-8,87%</t>
         </is>
       </c>
     </row>
@@ -814,52 +906,72 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-1,32; 6,47</t>
+          <t>-1,49; 6,8</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,38; 6,18</t>
+          <t>0,47; 6,51</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,54; 6,14</t>
+          <t>0,89; 5,86</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,06; 5,09</t>
+          <t>0,59; 7,09</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-2,75; 6,37</t>
+          <t>-2,91; 2,47</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-11,59; 86,84</t>
+          <t>-5,74; 3,1</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-0,66; 416,4</t>
+          <t>-3,88; 3,17</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>8,61; 248,45</t>
+          <t>-12,52; 90,84</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-3,88; 250,38</t>
+          <t>-6,94; 432,23</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>-2,84; 6,98</t>
+          <t>16,96; 233,88</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>5,56; 382,97</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-50,47; 87,02</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>-68,38; 78,87</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>-57,3; 96,92</t>
         </is>
       </c>
     </row>
@@ -876,17 +988,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>3,34</t>
+          <t>3,44</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>3,0</t>
+          <t>3,06</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -896,30 +1008,50 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
+          <t>-2,99</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>—</t>
         </is>
       </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>0,12%</t>
-        </is>
-      </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>235,39%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>45,18%</t>
+          <t>0,08%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-39,65%</t>
+          <t>231,47%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>43,74%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>-39,03%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>-53,57%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -934,34 +1066,34 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-7,01; 7,7</t>
+          <t>-7,62; 7,19</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,59; 8,81</t>
+          <t>-0,41; 8,54</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,68; 9,28</t>
+          <t>-3,6; 9,27</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-7,78; 1,61</t>
+          <t>-6,9; 2,39</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
+          <t>-9,85; 1,71</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-41,93; 92,18</t>
-        </is>
-      </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
@@ -969,15 +1101,35 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-33,7; 207,49</t>
+          <t>-44,99; 82,93</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-84,8; 64,98</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-38,56; 214,5</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-82,78; 104,03</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; 129,94</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1001,47 +1153,67 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>1,92</t>
+          <t>2,03</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>2,63</t>
+          <t>2,86</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>1,61</t>
+          <t>1,63</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-1,9</t>
+          <t>-0,11</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>22,04%</t>
+          <t>1,9</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>55,99%</t>
+          <t>0,33</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>53,09%</t>
+          <t>22,05%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>48,04%</t>
+          <t>59,57%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>-2,0%</t>
+          <t>59,69%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>45,64%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>-2,76%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>36,79%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>6,23%</t>
         </is>
       </c>
     </row>
@@ -1054,64 +1226,91 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-0,25; 5,11</t>
+          <t>-0,54; 4,64</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-0,05; 3,92</t>
+          <t>-0,22; 3,98</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,91; 4,48</t>
+          <t>1,08; 4,62</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,12; 3,2</t>
+          <t>-0,08; 3,47</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-4,33; 0,27</t>
+          <t>-1,97; 1,58</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-2,08; 55,14</t>
+          <t>-0,19; 4,17</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-5,2; 158,61</t>
+          <t>-1,64; 2,45</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>14,26; 112,45</t>
+          <t>-4,78; 50,2</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>2,61; 121,56</t>
+          <t>-6,95; 153,32</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>-4,48; 0,29</t>
+          <t>17,25; 119,66</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-7,2; 115,8</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-42,29; 53,65</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>-4,68; 97,51</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>-27,12; 60,51</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="J1:P1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:I1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_bre/P18_2_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P18_2_R-Urba-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P12"/>
+  <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -666,479 +675,307 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>2,73</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>0,81</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>2,38</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>1,48</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>0,71</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>2,88</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>0,54</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>24,49%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>17,01%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>45,6%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>39,19%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>23,81%</t>
-        </is>
-      </c>
-      <c r="O4" s="2" t="inlineStr">
-        <is>
-          <t>59,89%</t>
-        </is>
-      </c>
-      <c r="P4" s="2" t="inlineStr">
-        <is>
-          <t>10,06%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>2.725209623135269</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>0.8161138173111343</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>2.351034625924741</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>1.469324440263932</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>0.9309247597977098</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>2.878859530427368</v>
+      </c>
+      <c r="I4" s="5" t="n">
+        <v>0.5338870561996514</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>0.2449070648740081</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>0.1800717269174657</v>
+      </c>
+      <c r="L4" s="6" t="n">
+        <v>0.4426365540912319</v>
+      </c>
+      <c r="M4" s="6" t="n">
+        <v>0.391089732500213</v>
+      </c>
+      <c r="N4" s="6" t="n">
+        <v>0.3172479262614755</v>
+      </c>
+      <c r="O4" s="6" t="n">
+        <v>0.5988905124656309</v>
+      </c>
+      <c r="P4" s="6" t="n">
+        <v>0.09924736243522957</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-1,52; 6,13</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-3,48; 3,42</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-0,73; 4,91</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-0,99; 3,72</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-1,33; 3,24</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>0,77; 5,61</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-1,73; 2,92</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-11,73; 66,69</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>-47,63; 113,81</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>-11,37; 119,42</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>-24,04; 140,09</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>-36,54; 158,51</t>
-        </is>
-      </c>
-      <c r="O5" s="2" t="inlineStr">
-        <is>
-          <t>10,08; 149,09</t>
-        </is>
-      </c>
-      <c r="P5" s="2" t="inlineStr">
-        <is>
-          <t>-26,84; 71,57</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-1.524852328654298</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-3.191349412345837</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-0.851180057833281</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-1.102737431521144</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>-1.108239451408199</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>0.76892577389735</v>
+      </c>
+      <c r="I5" s="5" t="n">
+        <v>-1.728475486969869</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.1173204985400688</v>
+      </c>
+      <c r="K5" s="6" t="n">
+        <v>-0.4525858080709192</v>
+      </c>
+      <c r="L5" s="6" t="n">
+        <v>-0.1293214926878097</v>
+      </c>
+      <c r="M5" s="6" t="n">
+        <v>-0.2415485279187287</v>
+      </c>
+      <c r="N5" s="6" t="n">
+        <v>-0.3179080103159641</v>
+      </c>
+      <c r="O5" s="6" t="n">
+        <v>0.1008336562850434</v>
+      </c>
+      <c r="P5" s="6" t="n">
+        <v>-0.2660641935815135</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>6.134325416570769</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>3.32951866532232</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>4.975894771333849</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>3.645177329041225</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>3.73982553530301</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>5.614672441839831</v>
+      </c>
+      <c r="I6" s="5" t="n">
+        <v>2.899285808061396</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>0.6668901734699371</v>
+      </c>
+      <c r="K6" s="6" t="n">
+        <v>1.148230272413519</v>
+      </c>
+      <c r="L6" s="6" t="n">
+        <v>1.15132373961194</v>
+      </c>
+      <c r="M6" s="6" t="n">
+        <v>1.424632041284266</v>
+      </c>
+      <c r="N6" s="6" t="n">
+        <v>1.897928271543093</v>
+      </c>
+      <c r="O6" s="6" t="n">
+        <v>1.490900082084617</v>
+      </c>
+      <c r="P6" s="6" t="n">
+        <v>0.7118744607345456</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>2,64</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>3,06</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>3,39</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>2,98</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>-0,19</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>-1,49</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>-0,45</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>26,87%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>127,37%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>94,56%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>109,13%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>-4,39%</t>
-        </is>
-      </c>
-      <c r="O6" s="2" t="inlineStr">
-        <is>
-          <t>-23,61%</t>
-        </is>
-      </c>
-      <c r="P6" s="2" t="inlineStr">
-        <is>
-          <t>-8,87%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-1,49; 6,8</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>0,47; 6,51</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>0,89; 5,86</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>0,59; 7,09</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-2,91; 2,47</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-5,74; 3,1</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-3,88; 3,17</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-12,52; 90,84</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>-6,94; 432,23</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>16,96; 233,88</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>5,56; 382,97</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>-50,47; 87,02</t>
-        </is>
-      </c>
-      <c r="O7" s="2" t="inlineStr">
-        <is>
-          <t>-68,38; 78,87</t>
-        </is>
-      </c>
-      <c r="P7" s="2" t="inlineStr">
-        <is>
-          <t>-57,3; 96,92</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>2.637088180587997</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>2.923382130282767</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>2.927885188075567</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>2.80841555296644</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>-0.3093289401183523</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>-1.486456110001844</v>
+      </c>
+      <c r="I7" s="5" t="n">
+        <v>-0.5040689205339267</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>0.2686815158585264</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>1.153743794581568</v>
+      </c>
+      <c r="L7" s="6" t="n">
+        <v>0.741269849392482</v>
+      </c>
+      <c r="M7" s="6" t="n">
+        <v>1.045018438199968</v>
+      </c>
+      <c r="N7" s="6" t="n">
+        <v>-0.06937138994293718</v>
+      </c>
+      <c r="O7" s="6" t="n">
+        <v>-0.2360915462890309</v>
+      </c>
+      <c r="P7" s="6" t="n">
+        <v>-0.09890508673811917</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>0,01</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>3,44</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>3,06</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-2,19</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>-2,99</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>0,08%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>231,47%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>43,74%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>-39,03%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>-53,57%</t>
-        </is>
-      </c>
-      <c r="O8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="P8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-1.491786836302362</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>0.2601517869513939</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>0.1832664173871696</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>0.5228359272206091</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>-3.221555517703579</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>-5.739998808625043</v>
+      </c>
+      <c r="I8" s="5" t="n">
+        <v>-3.951230424108974</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.1252431663751303</v>
+      </c>
+      <c r="K8" s="6" t="n">
+        <v>-0.07676480199382947</v>
+      </c>
+      <c r="L8" s="6" t="n">
+        <v>0.005619545005444718</v>
+      </c>
+      <c r="M8" s="6" t="n">
+        <v>0.03133074123208123</v>
+      </c>
+      <c r="N8" s="6" t="n">
+        <v>-0.5163798092908634</v>
+      </c>
+      <c r="O8" s="6" t="n">
+        <v>-0.6837592565898865</v>
+      </c>
+      <c r="P8" s="6" t="n">
+        <v>-0.5858346810016738</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-7,62; 7,19</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-0,41; 8,54</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-3,6; 9,27</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-6,9; 2,39</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-9,85; 1,71</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-44,99; 82,93</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>-38,56; 214,5</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>-82,78; 104,03</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; 129,94</t>
-        </is>
-      </c>
-      <c r="O9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="P9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>6.800762901059874</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>6.339995419489269</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>5.495900212886473</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>6.493661981402886</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>2.282975889700287</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>3.096036190881553</v>
+      </c>
+      <c r="I9" s="5" t="n">
+        <v>3.122472668770966</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>0.9083577930543163</v>
+      </c>
+      <c r="K9" s="6" t="n">
+        <v>3.873710242457276</v>
+      </c>
+      <c r="L9" s="6" t="n">
+        <v>2.030616757500031</v>
+      </c>
+      <c r="M9" s="6" t="n">
+        <v>3.635375004592392</v>
+      </c>
+      <c r="N9" s="6" t="n">
+        <v>0.8000019204499992</v>
+      </c>
+      <c r="O9" s="6" t="n">
+        <v>0.7886544040537763</v>
+      </c>
+      <c r="P9" s="6" t="n">
+        <v>0.9581553035183039</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1146,157 +983,277 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>2,38</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>2,03</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>2,86</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>1,63</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>-0,11</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>1,9</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>0,33</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>22,05%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>59,57%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>59,69%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>45,64%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>-2,76%</t>
-        </is>
-      </c>
-      <c r="O10" s="2" t="inlineStr">
-        <is>
-          <t>36,79%</t>
-        </is>
-      </c>
-      <c r="P10" s="2" t="inlineStr">
-        <is>
-          <t>6,23%</t>
-        </is>
-      </c>
+      <c r="C10" s="5" t="n">
+        <v>0.009719714862385653</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>3.309726642948116</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>3.426894080735453</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>-2.276646730716656</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>-2.618956180896909</v>
+      </c>
+      <c r="H10" s="5" t="inlineStr"/>
+      <c r="I10" s="5" t="inlineStr"/>
+      <c r="J10" s="6" t="n">
+        <v>0.0007643194803471872</v>
+      </c>
+      <c r="K10" s="6" t="n">
+        <v>2.521972985891357</v>
+      </c>
+      <c r="L10" s="6" t="n">
+        <v>0.5142119027151451</v>
+      </c>
+      <c r="M10" s="6" t="n">
+        <v>-0.4128254871150768</v>
+      </c>
+      <c r="N10" s="6" t="n">
+        <v>-0.5069658804526892</v>
+      </c>
+      <c r="O10" s="6" t="inlineStr"/>
+      <c r="P10" s="6" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-0,54; 4,64</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-0,22; 3,98</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>1,08; 4,62</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-0,08; 3,47</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-1,97; 1,58</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-0,19; 4,17</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-1,64; 2,45</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-4,78; 50,2</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>-6,95; 153,32</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>17,25; 119,66</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>-7,2; 115,8</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>-42,29; 53,65</t>
-        </is>
-      </c>
-      <c r="O11" s="2" t="inlineStr">
-        <is>
-          <t>-4,68; 97,51</t>
-        </is>
-      </c>
-      <c r="P11" s="2" t="inlineStr">
-        <is>
-          <t>-27,12; 60,51</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-7.624135064047676</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-0.2895357421301266</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-2.554320873932504</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-7.173557011455328</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>-8.628045742121181</v>
+      </c>
+      <c r="H11" s="5" t="inlineStr"/>
+      <c r="I11" s="5" t="inlineStr"/>
+      <c r="J11" s="6" t="n">
+        <v>-0.4499423757009345</v>
+      </c>
+      <c r="K11" s="6" t="inlineStr"/>
+      <c r="L11" s="6" t="n">
+        <v>-0.3189056968515676</v>
+      </c>
+      <c r="M11" s="6" t="n">
+        <v>-0.826137807987112</v>
+      </c>
+      <c r="N11" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="O11" s="6" t="inlineStr"/>
+      <c r="P11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>7.19083203664026</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>8.016733329450764</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>9.888023774802374</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>2.076990698516198</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>2.007946514497087</v>
+      </c>
+      <c r="H12" s="5" t="inlineStr"/>
+      <c r="I12" s="5" t="inlineStr"/>
+      <c r="J12" s="6" t="n">
+        <v>0.8293126958683559</v>
+      </c>
+      <c r="K12" s="6" t="inlineStr"/>
+      <c r="L12" s="6" t="n">
+        <v>2.530194587928583</v>
+      </c>
+      <c r="M12" s="6" t="n">
+        <v>1.033094348818302</v>
+      </c>
+      <c r="N12" s="6" t="n">
+        <v>1.72764895810234</v>
+      </c>
+      <c r="O12" s="6" t="inlineStr"/>
+      <c r="P12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>2.380186043252351</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>1.960924903082101</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>2.7060205639329</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>1.556455785793442</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>-0.0009231858802589976</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>1.899640799028786</v>
+      </c>
+      <c r="I13" s="5" t="n">
+        <v>0.3092450860355999</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.2204894759973887</v>
+      </c>
+      <c r="K13" s="6" t="n">
+        <v>0.5858837941715377</v>
+      </c>
+      <c r="L13" s="6" t="n">
+        <v>0.5485036071877946</v>
+      </c>
+      <c r="M13" s="6" t="n">
+        <v>0.4388981332712497</v>
+      </c>
+      <c r="N13" s="6" t="n">
+        <v>-0.0002414631278085583</v>
+      </c>
+      <c r="O13" s="6" t="n">
+        <v>0.3679292976519657</v>
+      </c>
+      <c r="P13" s="6" t="n">
+        <v>0.05822939945224089</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-0.5418312079387614</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-0.1738188527508413</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>0.8948339652090572</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-0.15405565814949</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>-1.839934967103205</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>-0.1938391103235651</v>
+      </c>
+      <c r="I14" s="5" t="n">
+        <v>-1.666024034601845</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.04782626331040627</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>-0.07991101495732481</v>
+      </c>
+      <c r="L14" s="6" t="n">
+        <v>0.146561674241741</v>
+      </c>
+      <c r="M14" s="6" t="n">
+        <v>-0.07503765517017437</v>
+      </c>
+      <c r="N14" s="6" t="n">
+        <v>-0.3853714996650643</v>
+      </c>
+      <c r="O14" s="6" t="n">
+        <v>-0.04676360768095438</v>
+      </c>
+      <c r="P14" s="6" t="n">
+        <v>-0.2788851413471137</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>4.640909987710012</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>3.799213807886747</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>4.6966987679065</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>3.316321380427509</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>1.727646916411883</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>4.16846505927948</v>
+      </c>
+      <c r="I15" s="5" t="n">
+        <v>2.418509978305474</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>0.5020028083743447</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>1.468894515965499</v>
+      </c>
+      <c r="L15" s="6" t="n">
+        <v>1.189693442226682</v>
+      </c>
+      <c r="M15" s="6" t="n">
+        <v>1.154714658203489</v>
+      </c>
+      <c r="N15" s="6" t="n">
+        <v>0.603850930890947</v>
+      </c>
+      <c r="O15" s="6" t="n">
+        <v>0.9751485547484015</v>
+      </c>
+      <c r="P15" s="6" t="n">
+        <v>0.5893434780793894</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
@@ -1305,12 +1262,12 @@
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="J1:P1"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
     <mergeCell ref="C1:I1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
